--- a/src/resources/excelData/ExcelData.xlsx
+++ b/src/resources/excelData/ExcelData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19995" windowHeight="8445"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19995" windowHeight="8445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>login1</t>
   </si>
@@ -379,7 +379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -431,12 +431,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
